--- a/numberSheet/rand5.xlsx
+++ b/numberSheet/rand5.xlsx
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
